--- a/New Microsoft Office Excel Worksheet.xlsx
+++ b/New Microsoft Office Excel Worksheet.xlsx
@@ -13,6 +13,14 @@
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>14/3/2016</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -344,13 +352,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1">
@@ -371,6 +382,53 @@
       </c>
       <c r="B3" s="2">
         <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>42463</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>42554</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>42585</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>42616</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>42646</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>42677</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
